--- a/环多通阀通讯协议 V1.0.xlsx
+++ b/环多通阀通讯协议 V1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9515"/>
+    <workbookView windowWidth="10728" windowHeight="9515"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
     <t>关闭所有阀</t>
   </si>
   <si>
-    <t>01 05 00 00 FF 00 8C 3A</t>
+    <t>01 05 00 0E FF 00 8C 3A</t>
   </si>
   <si>
     <t>同发送报文，下同</t>
@@ -70,73 +70,73 @@
     <t>开启V1阀</t>
   </si>
   <si>
-    <t xml:space="preserve">01 05 00 01 FF 00 DD FA </t>
+    <t xml:space="preserve">01 05 00 00 FF 00 DD FA </t>
   </si>
   <si>
     <t>开启V2阀</t>
   </si>
   <si>
-    <t>01 05 00 02 FF 00 2D FA</t>
+    <t>01 05 00 01 FF 00 2D FA</t>
   </si>
   <si>
     <t>开启V3阀</t>
   </si>
   <si>
-    <t>01 05 00 03 FF 00 7C 3A</t>
+    <t>01 05 00 02 FF 00 7C 3A</t>
   </si>
   <si>
     <t>开启V4阀</t>
   </si>
   <si>
-    <t>01 05 00 04 FF 00 CD FB</t>
+    <t>01 05 00 03 FF 00 CD FB</t>
   </si>
   <si>
     <t>开启V5阀</t>
   </si>
   <si>
-    <t>01 05 00 05 FF 00 9C 3B</t>
+    <t>01 05 00 04 FF 00 9C 3B</t>
   </si>
   <si>
     <t>开启V6阀</t>
   </si>
   <si>
-    <t>01 05 00 06 FF 00 6C 3B</t>
+    <t>01 05 00 05 FF 00 6C 3B</t>
   </si>
   <si>
     <t>开启V7阀</t>
   </si>
   <si>
-    <t>01 05 00 07 FF 00 3D FB</t>
+    <t>01 05 00 06 FF 00 3D FB</t>
   </si>
   <si>
     <t>开启V8阀</t>
   </si>
   <si>
-    <t>01 05 00 08 FF 00 0D F8</t>
+    <t>01 05 00 07 FF 00 0D F8</t>
   </si>
   <si>
     <t>开启V9阀</t>
   </si>
   <si>
-    <t>01 05 00 09 FF 00 5C 38</t>
+    <t>01 05 00 08 FF 00 5C 38</t>
   </si>
   <si>
     <t>开启V10阀</t>
   </si>
   <si>
-    <t>01 05 00 0A FF 00 AC 38</t>
+    <t>01 05 00 09 FF 00 AC 38</t>
   </si>
   <si>
     <t>开启V11阀</t>
   </si>
   <si>
-    <t>01 05 00 0B FF 00 FD F8</t>
+    <t>01 05 00 0A FF 00 FD F8</t>
   </si>
   <si>
     <t>开启V12阀</t>
   </si>
   <si>
-    <t>01 05 00 0C FF 00 4C 39</t>
+    <t>01 05 00 0B FF 00 4C 39</t>
   </si>
   <si>
     <t>ml</t>
@@ -182,16 +182,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,18 +206,33 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -236,7 +251,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,55 +281,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -310,17 +297,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,67 +335,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,73 +359,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,7 +383,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,19 +485,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,6 +526,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -544,11 +562,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,39 +588,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,16 +617,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -644,133 +644,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1119,7 +1119,7 @@
   <dimension ref="A1:XFD105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>

--- a/环多通阀通讯协议 V1.0.xlsx
+++ b/环多通阀通讯协议 V1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10728" windowHeight="9515"/>
+    <workbookView windowWidth="22943" windowHeight="9924"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
   <si>
     <t>序号</t>
   </si>
@@ -37,7 +37,10 @@
     <t>9600 bps</t>
   </si>
   <si>
-    <t>从机地址设定（指整个驱动板的地址）</t>
+    <t>默认</t>
+  </si>
+  <si>
+    <t>从机地址addr（指整个驱动板的地址）</t>
   </si>
   <si>
     <t>0x01</t>
@@ -64,7 +67,7 @@
     <t>01 05 00 0E FF 00 8C 3A</t>
   </si>
   <si>
-    <t>同发送报文，下同</t>
+    <t>addr 05 00 FE 00 00 AC 3A，下同</t>
   </si>
   <si>
     <t>开启V1阀</t>
@@ -182,16 +185,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,30 +201,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,21 +216,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,27 +245,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -297,9 +269,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,8 +314,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,19 +338,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,7 +404,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,7 +440,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,13 +488,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,61 +500,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,43 +518,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,6 +529,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -540,9 +567,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,47 +621,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -632,10 +635,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -644,133 +647,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1119,7 +1122,7 @@
   <dimension ref="A1:XFD105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1158,7 +1161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1168,16 +1171,22 @@
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1185,10 +1194,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:4">
@@ -1196,13 +1205,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:4">
@@ -1210,13 +1219,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:3">
@@ -1224,10 +1233,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:3">
@@ -1235,10 +1244,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:3">
@@ -1246,10 +1255,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:3">
@@ -1257,10 +1266,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:3">
@@ -1268,10 +1277,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" spans="1:3">
@@ -1279,10 +1288,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" spans="1:3">
@@ -1290,10 +1299,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" spans="1:3">
@@ -1301,10 +1310,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" spans="1:3">
@@ -1312,10 +1321,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" spans="1:3">
@@ -1323,10 +1332,10 @@
         <v>11</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" spans="1:3">
@@ -1334,10 +1343,10 @@
         <v>12</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" spans="1:3">
@@ -1345,10 +1354,10 @@
         <v>13</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" spans="1:3">
@@ -66998,7 +67007,7 @@
         <v>1.2886265625</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="89" spans="4:9">
@@ -67014,7 +67023,7 @@
         <v>0.00012886265625</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="90" spans="4:5">
@@ -67059,7 +67068,7 @@
         <v>0.258014236111111</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96" spans="5:6">
@@ -67068,12 +67077,12 @@
         <v>0.000129007118055556</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="97" spans="5:5">
       <c r="E97" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="102" spans="4:6">
@@ -67081,7 +67090,7 @@
         <v>0.129</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" s="4">
         <v>7752</v>
@@ -67089,7 +67098,7 @@
     </row>
     <row r="103" spans="5:6">
       <c r="E103" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F103" s="4">
         <v>23256</v>
@@ -67100,12 +67109,12 @@
         <v>0.128</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="105" spans="5:5">
       <c r="E105" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/环多通阀通讯协议 V1.0.xlsx
+++ b/环多通阀通讯协议 V1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13211" windowHeight="9515"/>
+    <workbookView windowWidth="22943" windowHeight="9924"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,6 +71,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">01 05 00 </t>
     </r>
     <r>
@@ -95,7 +102,7 @@
     </r>
   </si>
   <si>
-    <t>addr 05 00 FE 00 00 AC 3A，下同</t>
+    <t>addr 05 00 FE 00 00 AC 3A，校验位不变，下同</t>
   </si>
   <si>
     <t>开启V1阀</t>
@@ -186,6 +193,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">01 05 00 </t>
     </r>
     <r>
@@ -237,9 +251,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.000000000_ "/>
   </numFmts>
   <fonts count="22">
@@ -273,70 +287,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,7 +319,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,7 +334,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,10 +348,72 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -419,91 +433,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,13 +457,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,31 +535,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,7 +559,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,7 +589,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,23 +630,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,13 +660,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,31 +694,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,10 +730,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -728,133 +742,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1206,7 +1220,7 @@
   <dimension ref="A1:XFD106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
